--- a/5- Test cases/OrangeHRM_TestCase.xlsx
+++ b/5- Test cases/OrangeHRM_TestCase.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Testing\DEPI\Orange hrm Project\Orange HRM Works\5- Test cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\OrangeHrmProject\OrangeHrm\5- Test cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9687987C-7F20-4351-85CB-9605782CC355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD7A23C-F805-45B2-A7F3-6E5D4F4B396D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F8CE9BF7-D31C-4131-B071-6A1A867D5258}"/>
   </bookViews>
@@ -12237,7 +12237,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="40" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A623" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B623" sqref="B623"/>
+      <selection pane="bottomLeft" activeCell="F623" sqref="F623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.6640625" defaultRowHeight="57.6" customHeight="1" x14ac:dyDescent="0.3"/>
